--- a/Март 2025.xlsx
+++ b/Март 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>Дата</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>До вычета обедов</t>
+  </si>
+  <si>
+    <t>Учебный день</t>
+  </si>
+  <si>
+    <t>Работа над оптимизацией циклограммы для работы с большими программами</t>
+  </si>
+  <si>
+    <t>Работа над оптимизацией циклограммы для работы с большими программами (исправление ошибок, тестирование прототипа)</t>
+  </si>
+  <si>
+    <t>Оптимизация работы с БД</t>
+  </si>
+  <si>
+    <t>Продолжение оптимизации работы с БД (время загрузки PD-14 составляет 5-6с.), тестирование и исправление ошибок; Проверка герметичности РВД (4 стенд)</t>
+  </si>
+  <si>
+    <t>Проверка герметичности РВД (4 стенд); Правки в отрисовке шкалы прогресса на циклограмме</t>
   </si>
 </sst>
 </file>
@@ -489,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +604,9 @@
       <c r="D4" s="4">
         <v>0.375</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -595,7 +615,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45720</v>
       </c>
@@ -606,18 +626,20 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45721</v>
       </c>
@@ -628,12 +650,14 @@
         <v>0.375</v>
       </c>
       <c r="D6" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
@@ -650,18 +674,20 @@
         <v>0.375</v>
       </c>
       <c r="D7" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45723</v>
       </c>
@@ -674,14 +700,16 @@
       <c r="D8" s="4">
         <v>0.375</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="6">
         <f>SUM(F4:F8)</f>
-        <v>0</v>
+        <v>0.87499999999999989</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -726,7 +754,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45726</v>
       </c>
@@ -737,12 +765,14 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
@@ -834,7 +864,7 @@
       </c>
       <c r="G15" s="6">
         <f>SUM(F11:F15)</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1222,7 +1252,7 @@
       <c r="B33" s="8"/>
       <c r="H33" s="9">
         <f>SUM(F2:F32)</f>
-        <v>0</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>

--- a/Март 2025.xlsx
+++ b/Март 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Дата</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Проверка герметичности РВД (4 стенд); Правки в отрисовке шкалы прогресса на циклограмме</t>
+  </si>
+  <si>
+    <t>Добавление поддержки циклов для циклограммы; Проверка герметичности РВД (4 стенд)</t>
+  </si>
+  <si>
+    <t>Тестирование работы циклограммы с большими программами</t>
+  </si>
+  <si>
+    <t>Продолжение работы над добавлением поддержки циклов, тестирование полученного результата</t>
   </si>
 </sst>
 </file>
@@ -778,7 +787,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45727</v>
       </c>
@@ -789,18 +798,20 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45728</v>
       </c>
@@ -811,18 +822,20 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E13" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45729</v>
       </c>
@@ -833,12 +846,14 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E14" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
@@ -864,7 +879,7 @@
       </c>
       <c r="G15" s="6">
         <f>SUM(F11:F15)</f>
-        <v>0.16666666666666663</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1252,7 +1267,7 @@
       <c r="B33" s="8"/>
       <c r="H33" s="9">
         <f>SUM(F2:F32)</f>
-        <v>1.0416666666666665</v>
+        <v>1.9166666666666661</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>

--- a/Март 2025.xlsx
+++ b/Март 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>Дата</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Продолжение работы над добавлением поддержки циклов, тестирование полученного результата</t>
+  </si>
+  <si>
+    <t>Внесение правок в работу циклограммы</t>
+  </si>
+  <si>
+    <t>Оптимизация отрисовки больших полетов в циклограмме, тестирование полученного результата</t>
   </si>
 </sst>
 </file>
@@ -516,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,16 +876,18 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E15" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G15" s="6">
         <f>SUM(F11:F15)</f>
-        <v>1.0416666666666665</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -924,7 +932,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45733</v>
       </c>
@@ -935,12 +943,14 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E18" s="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
@@ -1032,7 +1042,7 @@
       </c>
       <c r="G22" s="6">
         <f>SUM(F18:F22)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1267,7 +1277,7 @@
       <c r="B33" s="8"/>
       <c r="H33" s="9">
         <f>SUM(F2:F32)</f>
-        <v>1.9166666666666661</v>
+        <v>2.4999999999999991</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>

--- a/Март 2025.xlsx
+++ b/Март 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Дата</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Оптимизация отрисовки больших полетов в циклограмме, тестирование полученного результата</t>
+  </si>
+  <si>
+    <t>Внесение правок в работу циклограммы, добавление поддержики команд типа "Пауза по времени", внесение изменений во внешний вид страницы с циклограммы</t>
+  </si>
+  <si>
+    <t>Внесение правок в работу циклограммы, добавление поддержики команд не влияющих на график циклограммы, начата работа над расчетом и отображением сквозного времени программы испытания</t>
   </si>
 </sst>
 </file>
@@ -522,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +962,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45734</v>
       </c>
@@ -964,21 +970,23 @@
         <v>14</v>
       </c>
       <c r="C19" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D19" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E19" s="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45735</v>
       </c>
@@ -986,15 +994,17 @@
         <v>8</v>
       </c>
       <c r="C20" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D20" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E20" s="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
@@ -1042,7 +1052,7 @@
       </c>
       <c r="G22" s="6">
         <f>SUM(F18:F22)</f>
-        <v>0.29166666666666663</v>
+        <v>0.79166666666666652</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1277,7 +1287,7 @@
       <c r="B33" s="8"/>
       <c r="H33" s="9">
         <f>SUM(F2:F32)</f>
-        <v>2.4999999999999991</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>

--- a/Март 2025.xlsx
+++ b/Март 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Дата</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Внесение правок в работу циклограммы, добавление поддержики команд не влияющих на график циклограммы, начата работа над расчетом и отображением сквозного времени программы испытания</t>
+  </si>
+  <si>
+    <t>Завершена работа над расчетом и отображением сквозного времени программы испытания, начата работа над нижней панелью для отображения основных данных о положении на циклограмме</t>
+  </si>
+  <si>
+    <t>Сделан первый вариант нижней панели для циклограммы</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1016,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45736</v>
       </c>
@@ -1018,21 +1024,23 @@
         <v>9</v>
       </c>
       <c r="C21" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D21" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E21" s="12"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.31250000000000006</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45737</v>
       </c>
@@ -1040,19 +1048,21 @@
         <v>10</v>
       </c>
       <c r="C22" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D22" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E22" s="11"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.31250000000000006</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F18:F22)</f>
-        <v>0.79166666666666652</v>
+        <v>1.4166666666666665</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1287,7 +1297,7 @@
       <c r="B33" s="8"/>
       <c r="H33" s="9">
         <f>SUM(F2:F32)</f>
-        <v>2.9999999999999991</v>
+        <v>3.6249999999999991</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
